--- a/W7/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W7/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="174">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>(*) You can rate the functions' complexity based on the number of fields on the screens or the number of transactions in the function, with the details as below</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
   </si>
   <si>
     <t>Forgot password</t>
-  </si>
-  <si>
-    <t>Add addresses</t>
   </si>
   <si>
     <t>Admin dashboard</t>
@@ -452,9 +446,6 @@
     <t>Blog list</t>
   </si>
   <si>
-    <t>Introduction</t>
-  </si>
-  <si>
     <t>Add to cart</t>
   </si>
   <si>
@@ -464,9 +455,6 @@
     <t>Delete product in cart</t>
   </si>
   <si>
-    <t>View list order</t>
-  </si>
-  <si>
     <t>Search account</t>
   </si>
   <si>
@@ -479,12 +467,6 @@
     <t>Reply feedback</t>
   </si>
   <si>
-    <t>Filter products</t>
-  </si>
-  <si>
-    <t>List Account</t>
-  </si>
-  <si>
     <t>Search Product</t>
   </si>
   <si>
@@ -497,9 +479,6 @@
     <t>Seller</t>
   </si>
   <si>
-    <t>Display list porduct, category</t>
-  </si>
-  <si>
     <t>Support Services</t>
   </si>
   <si>
@@ -527,9 +506,6 @@
     <t>Search Service</t>
   </si>
   <si>
-    <t>Account Information</t>
-  </si>
-  <si>
     <t>Update account role</t>
   </si>
   <si>
@@ -551,9 +527,6 @@
     <t>Search Feedback</t>
   </si>
   <si>
-    <t>Cancel Order (User)</t>
-  </si>
-  <si>
     <t>Add feedback</t>
   </si>
   <si>
@@ -561,13 +534,43 @@
   </si>
   <si>
     <t>Chat with admin</t>
+  </si>
+  <si>
+    <t>Show products</t>
+  </si>
+  <si>
+    <t>Add User Address</t>
+  </si>
+  <si>
+    <t>Account Management</t>
+  </si>
+  <si>
+    <t>View Order</t>
+  </si>
+  <si>
+    <t>Admin Dashboard</t>
+  </si>
+  <si>
+    <t>Create Order</t>
+  </si>
+  <si>
+    <t>Order Detail</t>
+  </si>
+  <si>
+    <t>Cancel Order</t>
+  </si>
+  <si>
+    <t>View Shop</t>
+  </si>
+  <si>
+    <t>Manage requests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,8 +671,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +709,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
   </fills>
@@ -751,7 +780,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -829,29 +858,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -860,20 +871,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1707,8 +1761,8 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1741,7 +1795,7 @@
     </row>
     <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="16"/>
     </row>
@@ -1784,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -1794,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>10</v>
@@ -1803,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -1813,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
@@ -1822,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -1831,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>10</v>
@@ -1840,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -1850,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>10</v>
@@ -1906,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>10</v>
@@ -1915,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -1943,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -1952,7 +2006,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -1961,7 +2015,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>24</v>
@@ -1970,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -1979,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>25</v>
@@ -1988,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -1997,7 +2051,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>25</v>
@@ -2006,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -2015,7 +2069,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>24</v>
@@ -2024,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -2033,7 +2087,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>24</v>
@@ -2042,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -2051,16 +2105,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -2069,16 +2123,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -2087,16 +2141,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -2105,16 +2159,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -2123,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>10</v>
@@ -2132,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -2141,7 +2195,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>10</v>
@@ -2150,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -2159,7 +2213,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>24</v>
@@ -2168,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -2177,16 +2231,16 @@
         <v>23</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -2195,7 +2249,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>19</v>
@@ -2204,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -2213,7 +2267,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>19</v>
@@ -2222,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F33" s="8"/>
     </row>
@@ -2231,7 +2285,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>19</v>
@@ -2240,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F34" s="8"/>
     </row>
@@ -2249,7 +2303,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>19</v>
@@ -2258,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F35" s="8"/>
     </row>
@@ -2267,7 +2321,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>19</v>
@@ -2276,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F36" s="8"/>
     </row>
@@ -2285,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>19</v>
@@ -2294,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -2303,7 +2357,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>19</v>
@@ -2312,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F38" s="8"/>
     </row>
@@ -2321,7 +2375,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>19</v>
@@ -2330,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F39" s="8"/>
     </row>
@@ -2339,7 +2393,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>19</v>
@@ -2348,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F40" s="8"/>
     </row>
@@ -2357,7 +2411,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>19</v>
@@ -2366,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F41" s="8"/>
     </row>
@@ -2375,7 +2429,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>19</v>
@@ -2384,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F42" s="8"/>
     </row>
@@ -2429,7 +2483,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>19</v>
@@ -2438,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F45" s="8"/>
     </row>
@@ -2447,7 +2501,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>19</v>
@@ -2456,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F46" s="8"/>
     </row>
@@ -2465,7 +2519,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>19</v>
@@ -2474,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F47" s="8"/>
     </row>
@@ -2483,7 +2537,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>19</v>
@@ -2492,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F48" s="8"/>
     </row>
@@ -2501,7 +2555,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>19</v>
@@ -2517,7 +2571,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>19</v>
@@ -2526,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F50" s="8"/>
     </row>
@@ -2535,7 +2589,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>19</v>
@@ -2544,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F51" s="8"/>
     </row>
@@ -2553,7 +2607,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>19</v>
@@ -2562,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F52" s="8"/>
     </row>
@@ -2571,7 +2625,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>19</v>
@@ -2580,67 +2634,67 @@
         <v>2</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="D55" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="D56" s="22" t="s">
         <v>40</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="D57" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -2667,7 +2721,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2735,27 +2789,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
-        <v>1</v>
-      </c>
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
+        <v>1</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="52">
         <v>120</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="31">
-        <v>120</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>131</v>
+      <c r="F9" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2763,48 +2817,48 @@
         <f t="shared" ref="A10:A12" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="29">
+      <c r="D10" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="53">
         <v>60</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="30"/>
+      <c r="F10" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="54">
         <v>60</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>131</v>
+      <c r="F11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -2813,23 +2867,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="54">
+        <v>60</v>
+      </c>
+      <c r="F12" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>60</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>131</v>
+      <c r="G12" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -2837,72 +2891,72 @@
       <c r="A13" s="12">
         <v>5</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="38" t="s">
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="54">
         <f t="shared" ref="E13" si="1">IF(D13="Complex", 240, IF(D13="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>131</v>
+      <c r="F13" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43">
+      <c r="A14" s="37">
         <v>6</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="46" t="s">
+      <c r="B14" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="55">
         <v>120</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="45"/>
+      <c r="F14" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>7</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="54">
         <v>60</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>131</v>
+      <c r="F15" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -2910,23 +2964,23 @@
       <c r="A16" s="12">
         <v>8</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="54">
         <v>60</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>131</v>
+      <c r="F16" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -2934,23 +2988,23 @@
       <c r="A17" s="12">
         <v>9</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="54">
         <v>60</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>131</v>
+      <c r="F17" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="H17" s="15"/>
     </row>
@@ -2959,22 +3013,22 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7">
-        <v>240</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>131</v>
+      <c r="D18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="54">
+        <v>60</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="H18" s="15"/>
     </row>
@@ -3003,13 +3057,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="9.109375" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" customWidth="1"/>
@@ -3038,7 +3092,7 @@
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -3077,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>19</v>
@@ -3089,11 +3143,11 @@
         <f t="shared" ref="E9:E17" si="1">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F9" s="35" t="s">
-        <v>121</v>
+      <c r="F9" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H9" s="15"/>
     </row>
@@ -3102,8 +3156,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>146</v>
+      <c r="B10" s="58" t="s">
+        <v>173</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -3115,11 +3169,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>121</v>
+      <c r="F10" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -3141,11 +3195,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>122</v>
+      <c r="F11" s="31" t="s">
+        <v>120</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -3155,7 +3209,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>19</v>
@@ -3167,11 +3221,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>122</v>
+      <c r="F12" s="31" t="s">
+        <v>120</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -3180,11 +3234,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>153</v>
+      <c r="B13" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>1</v>
@@ -3193,24 +3247,24 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>126</v>
+      <c r="F13" s="32" t="s">
+        <v>124</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>154</v>
+      <c r="B14" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1</v>
@@ -3219,48 +3273,48 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>126</v>
+      <c r="F14" s="32" t="s">
+        <v>124</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="H15" s="56"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>1</v>
@@ -3269,23 +3323,23 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>127</v>
+      <c r="F16" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="15"/>
+        <v>130</v>
+      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>9</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>81</v>
+      <c r="B17" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>1</v>
@@ -3294,13 +3348,13 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>123</v>
+      <c r="F17" s="32" t="s">
+        <v>121</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="H17" s="56"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
@@ -3308,10 +3362,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>1</v>
@@ -3320,13 +3374,13 @@
         <f>IF(D18="Complex", 240, IF(D18="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F18" s="34" t="s">
-        <v>123</v>
+      <c r="F18" s="32" t="s">
+        <v>121</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="H18" s="56"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:F18"/>
@@ -3339,8 +3393,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3388,7 +3442,7 @@
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -3427,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>24</v>
@@ -3439,11 +3493,11 @@
         <f t="shared" ref="E9:E18" si="1">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F9" s="35" t="s">
-        <v>121</v>
+      <c r="F9" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H9" s="9"/>
     </row>
@@ -3453,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -3465,11 +3519,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>121</v>
+      <c r="F10" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H10" s="9"/>
     </row>
@@ -3479,7 +3533,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
@@ -3491,11 +3545,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F11" s="40" t="s">
-        <v>122</v>
+      <c r="F11" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H11" s="9"/>
     </row>
@@ -3505,7 +3559,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>19</v>
@@ -3517,11 +3571,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F12" s="40" t="s">
-        <v>122</v>
+      <c r="F12" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H12" s="9"/>
     </row>
@@ -3530,37 +3584,37 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>137</v>
+      <c r="B13" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>126</v>
+        <v>60</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>139</v>
+      <c r="B14" s="59" t="s">
+        <v>146</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1</v>
@@ -3569,23 +3623,23 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F14" s="41" t="s">
-        <v>126</v>
+      <c r="F14" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>1</v>
@@ -3594,11 +3648,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F15" s="41" t="s">
-        <v>127</v>
+      <c r="F15" s="35" t="s">
+        <v>125</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -3607,23 +3661,23 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>127</v>
+        <v>60</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>125</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H16" s="9"/>
     </row>
@@ -3632,25 +3686,25 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>123</v>
+        <v>60</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>121</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="9"/>
+        <v>130</v>
+      </c>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
@@ -3658,23 +3712,23 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H18" s="9"/>
     </row>
@@ -3689,8 +3743,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3703,7 +3757,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3738,7 +3792,7 @@
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -3777,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>10</v>
@@ -3789,11 +3843,11 @@
         <f t="shared" ref="E9:E15" si="1">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="41" t="s">
-        <v>121</v>
+      <c r="F9" s="35" t="s">
+        <v>119</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -3803,7 +3857,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -3815,11 +3869,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F10" s="41" t="s">
-        <v>121</v>
+      <c r="F10" s="35" t="s">
+        <v>119</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H10" s="9"/>
     </row>
@@ -3829,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>24</v>
@@ -3841,11 +3895,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F11" s="40" t="s">
-        <v>122</v>
+      <c r="F11" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H11" s="9"/>
     </row>
@@ -3855,10 +3909,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>3</v>
@@ -3867,11 +3921,11 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="F12" s="40" t="s">
-        <v>122</v>
+      <c r="F12" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -3881,10 +3935,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>1</v>
@@ -3893,11 +3947,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F13" s="41" t="s">
-        <v>126</v>
+      <c r="F13" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -3907,10 +3961,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1</v>
@@ -3919,11 +3973,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F14" s="41" t="s">
-        <v>126</v>
+      <c r="F14" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H14" s="9"/>
     </row>
@@ -3932,10 +3986,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>1</v>
@@ -3944,11 +3998,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F15" s="41" t="s">
-        <v>127</v>
+      <c r="F15" s="35" t="s">
+        <v>125</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -3957,7 +4011,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>25</v>
@@ -3968,11 +4022,11 @@
       <c r="E16" s="7">
         <v>120</v>
       </c>
-      <c r="F16" s="41" t="s">
-        <v>127</v>
+      <c r="F16" s="35" t="s">
+        <v>125</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H16" s="9"/>
     </row>
@@ -3981,10 +4035,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>2</v>
@@ -3992,11 +4046,11 @@
       <c r="E17" s="7">
         <v>120</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>123</v>
+      <c r="F17" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H17" s="9"/>
     </row>
@@ -4005,10 +4059,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>1</v>
@@ -4017,11 +4071,11 @@
         <f t="shared" ref="E18:E21" si="2">IF(D18="Complex", 240, IF(D18="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>123</v>
+      <c r="F18" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H18" s="9"/>
     </row>
@@ -4030,10 +4084,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>1</v>
@@ -4042,11 +4096,11 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F19" s="41" t="s">
-        <v>121</v>
+      <c r="F19" s="35" t="s">
+        <v>119</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="H19" s="9"/>
     </row>
@@ -4055,10 +4109,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>1</v>
@@ -4067,11 +4121,11 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F20" s="40" t="s">
-        <v>122</v>
+      <c r="F20" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H20" s="9"/>
     </row>
@@ -4080,7 +4134,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>19</v>
@@ -4092,11 +4146,11 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="F21" s="41" t="s">
-        <v>126</v>
+      <c r="F21" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H21" s="9"/>
     </row>
@@ -4105,7 +4159,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>19</v>
@@ -4117,11 +4171,11 @@
         <f t="shared" ref="E22:E23" si="3">IF(D22="Complex", 240, IF(D22="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F22" s="41" t="s">
-        <v>127</v>
+      <c r="F22" s="35" t="s">
+        <v>125</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H22" s="9"/>
     </row>
@@ -4130,7 +4184,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>19</v>
@@ -4142,11 +4196,11 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="F23" s="42" t="s">
-        <v>123</v>
+      <c r="F23" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="H23" s="9"/>
     </row>

--- a/W7/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W7/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="175">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -479,15 +479,6 @@
     <t>Seller</t>
   </si>
   <si>
-    <t>Support Services</t>
-  </si>
-  <si>
-    <t>Help Details</t>
-  </si>
-  <si>
-    <t>Help Content</t>
-  </si>
-  <si>
     <t>Service Support</t>
   </si>
   <si>
@@ -506,9 +497,6 @@
     <t>Search Service</t>
   </si>
   <si>
-    <t>Update account role</t>
-  </si>
-  <si>
     <t>Manager service</t>
   </si>
   <si>
@@ -524,27 +512,18 @@
     <t>Manage Feedback</t>
   </si>
   <si>
-    <t>Search Feedback</t>
-  </si>
-  <si>
     <t>Add feedback</t>
   </si>
   <si>
     <t>Chat with seller</t>
   </si>
   <si>
-    <t>Chat with admin</t>
-  </si>
-  <si>
     <t>Show products</t>
   </si>
   <si>
     <t>Add User Address</t>
   </si>
   <si>
-    <t>Account Management</t>
-  </si>
-  <si>
     <t>View Order</t>
   </si>
   <si>
@@ -564,6 +543,30 @@
   </si>
   <si>
     <t>Manage requests</t>
+  </si>
+  <si>
+    <t>View Services</t>
+  </si>
+  <si>
+    <t>Update Profile</t>
+  </si>
+  <si>
+    <t>List Account</t>
+  </si>
+  <si>
+    <t>Account Detail</t>
+  </si>
+  <si>
+    <t>Service Details</t>
+  </si>
+  <si>
+    <t>List Shop</t>
+  </si>
+  <si>
+    <t>Product detail</t>
+  </si>
+  <si>
+    <t>View Shop Details</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,6 +724,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -780,7 +789,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,6 +936,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1761,8 +1776,8 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <pane ySplit="8" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1960,7 +1975,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>10</v>
@@ -2483,7 +2498,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>19</v>
@@ -2492,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F45" s="8"/>
     </row>
@@ -2501,7 +2516,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>19</v>
@@ -2510,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F46" s="8"/>
     </row>
@@ -2555,7 +2570,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>19</v>
@@ -2721,7 +2736,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2797,7 +2812,7 @@
         <v>118</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>2</v>
@@ -2917,7 +2932,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>24</v>
@@ -2989,7 +3004,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
@@ -3013,7 +3028,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
@@ -3057,7 +3072,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3134,7 +3149,7 @@
         <v>133</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>1</v>
@@ -3157,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -3183,10 +3198,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>1</v>
@@ -3209,10 +3224,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>1</v>
@@ -3241,11 +3256,11 @@
         <v>24</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>124</v>
@@ -3311,7 +3326,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>24</v>
@@ -3336,7 +3351,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>24</v>
@@ -3362,7 +3377,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>24</v>
@@ -3507,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -3536,7 +3551,7 @@
         <v>142</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>1</v>
@@ -3558,11 +3573,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
+      <c r="B12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>1</v>
@@ -3584,11 +3599,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>19</v>
+      <c r="B13" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>1</v>
@@ -3601,7 +3616,7 @@
         <v>124</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H13" s="9"/>
     </row>
@@ -3611,10 +3626,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>172</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1</v>
@@ -3636,7 +3651,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>25</v>
@@ -3661,7 +3676,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>25</v>
@@ -3677,7 +3692,7 @@
         <v>125</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H16" s="9"/>
     </row>
@@ -3686,10 +3701,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>1</v>
@@ -3712,7 +3727,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>24</v>
@@ -3757,7 +3772,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3857,7 +3872,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -3878,17 +3893,17 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="60">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="7">
@@ -3899,7 +3914,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="9"/>
     </row>
@@ -3908,18 +3923,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>144</v>
+      <c r="B12" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>120</v>
@@ -3935,10 +3950,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>1</v>
@@ -3960,18 +3975,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>159</v>
+      <c r="B14" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>124</v>
@@ -3985,18 +4000,18 @@
       <c r="A15" s="12">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>160</v>
+      <c r="B15" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>125</v>
@@ -4011,7 +4026,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>25</v>
@@ -4059,7 +4074,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>144</v>
@@ -4084,17 +4099,17 @@
         <v>11</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F19" s="35" t="s">
         <v>119</v>
@@ -4108,18 +4123,18 @@
       <c r="A20" s="12">
         <v>12</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>139</v>
+      <c r="B20" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>120</v>
@@ -4127,17 +4142,17 @@
       <c r="G20" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>13</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>2</v>
@@ -4159,10 +4174,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>2</v>
@@ -4187,7 +4202,7 @@
         <v>143</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>2</v>
